--- a/biology/Botanique/Blechnum/Blechnum.xlsx
+++ b/biology/Botanique/Blechnum/Blechnum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blechnum est un genre de fougères de la famille des Blechnaceae qui peuvent être parfois arborescentes.
 L'espèce (sauvage) rencontrée en France, Belgique et Suisse est Struthiopteris spicant (fougère pectinée ou Blechnum en épi), plutôt montagnarde ou des milieux frais et ombragés, sur des sols perméables, frais et acides, le plus souvent siliceux, éventuellement très humides en hiver (Cette espèce est protégée dans une partie de la France).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Blechnum vient du grec blechnon qui fut utilisé par Dioscoride dès le premier siècle de notre ère pour désigner les fougères en général.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Blechnum se retrouve en Nouvelle-Calédonie (mais pas uniquement) où 17 espèces existent dont 11 endémiques.
 </t>
@@ -574,7 +590,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les rhizomes sont verticaux.
@@ -612,9 +630,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (31 octobre 2016)[2] : 37 espèces
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (31 octobre 2016) : 37 espèces
 Blechnum anthracinum R.C. Moran
 Blechnum appendiculatum Willd.
 Blechnum arcuatum J. Rémy &amp; Fée
@@ -652,7 +672,7 @@
 Blechnum socialis Sodiro
 Blechnum sodiroi C. Chr.
 Blechnum wolamense
-Selon The Plant List            (30 avril 2015)[3] :
+Selon The Plant List            (30 avril 2015) :
 Blechnum acutum (Desv.) Mett.
 Blechnum aduncum Liebm.
 Blechnum aequatoriense A. Rojas
